--- a/hardware/Steppers/TMC_Ref/TMC5130_TMC2130_TMC2100_Calculations.xlsx
+++ b/hardware/Steppers/TMC_Ref/TMC5130_TMC2130_TMC2100_Calculations.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Labor\Projekte\TMC2xx_Rhino\dokumentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B3DBCE-A1FE-47A8-B0BA-99EE8AD7CCE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15348" yWindow="-12" windowWidth="15384" windowHeight="14028"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Velocity Calculation" sheetId="1" r:id="rId1"/>
@@ -13,14 +19,22 @@
     <sheet name="Rsense" sheetId="7" r:id="rId4"/>
     <sheet name="RDSonSense" sheetId="6" r:id="rId5"/>
     <sheet name="Microstep Table" sheetId="3" r:id="rId6"/>
-    <sheet name="Revision History" sheetId="4" r:id="rId7"/>
+    <sheet name="Datagram CRC calculation" sheetId="8" r:id="rId7"/>
+    <sheet name="Revision History" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="293">
   <si>
     <t>RPS</t>
   </si>
@@ -1055,18 +1069,129 @@
   <si>
     <t>Included microstep resolution for TSTEP calculation</t>
   </si>
+  <si>
+    <t>2017-MAR-08</t>
+  </si>
+  <si>
+    <t>Hex conversion of Microstep table</t>
+  </si>
+  <si>
+    <t>Hex Data for table</t>
+  </si>
+  <si>
+    <t>Write Access</t>
+  </si>
+  <si>
+    <t>Sync byte (fix)</t>
+  </si>
+  <si>
+    <t>Register for Write</t>
+  </si>
+  <si>
+    <t>data 3</t>
+  </si>
+  <si>
+    <t>data 2</t>
+  </si>
+  <si>
+    <t>data 1</t>
+  </si>
+  <si>
+    <t>data 0</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write Datagram Hex with CRC: </t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Write Datagram Dec:</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Acc. CRC</t>
+  </si>
+  <si>
+    <t>CRC Byte Bit 0</t>
+  </si>
+  <si>
+    <t>Bit 1</t>
+  </si>
+  <si>
+    <t>Bit 2</t>
+  </si>
+  <si>
+    <t>Bit 3</t>
+  </si>
+  <si>
+    <t>Bit 4</t>
+  </si>
+  <si>
+    <t>Bit 5</t>
+  </si>
+  <si>
+    <t>Bit 6</t>
+  </si>
+  <si>
+    <t>Bit 7</t>
+  </si>
+  <si>
+    <t>Read Access</t>
+  </si>
+  <si>
+    <t>Register for Read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read Datagram Hex with CRC: </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Read Datagram Dec:</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>2019-SEP-23</t>
+  </si>
+  <si>
+    <t>Added CRC calculation sheet</t>
+  </si>
+  <si>
+    <t>Calculation of the CRC Byte for UART interface</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1247,8 +1372,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1285,8 +1417,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1455,11 +1599,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1602,6 +1757,17 @@
     <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1737,12 +1903,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -2545,6 +2714,11 @@
             </c:numLit>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB72-4200-9810-CE5E36BD29D4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3330,6 +3504,11 @@
             </c:numLit>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB72-4200-9810-CE5E36BD29D4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3339,13 +3518,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111025536"/>
-        <c:axId val="111039616"/>
+        <c:axId val="158148864"/>
+        <c:axId val="158158848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111025536"/>
+        <c:axId val="158148864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3354,7 +3532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111039616"/>
+        <c:crossAx val="158158848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3362,7 +3540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111039616"/>
+        <c:axId val="158158848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3373,7 +3551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111025536"/>
+        <c:crossAx val="158148864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3395,7 +3573,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -4209,6 +4387,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACD0-49E7-A3B1-D3EE760FDE6B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5005,6 +5188,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACD0-49E7-A3B1-D3EE760FDE6B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5014,13 +5202,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110757376"/>
-        <c:axId val="110758912"/>
+        <c:axId val="158179712"/>
+        <c:axId val="158181248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110757376"/>
+        <c:axId val="158179712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5029,7 +5216,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110758912"/>
+        <c:crossAx val="158181248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5037,7 +5224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110758912"/>
+        <c:axId val="158181248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5048,7 +5235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110757376"/>
+        <c:crossAx val="158179712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5086,7 +5273,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5118,7 +5311,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5139,9 +5338,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5179,9 +5378,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5214,9 +5413,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5249,9 +5465,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5424,11 +5657,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5923,7 +6156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6592,7 +6825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -7522,7 +7755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8099,7 +8332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8376,11 +8609,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1048"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:O1048"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8397,6 +8630,7 @@
     <col min="10" max="10" width="24.109375" customWidth="1"/>
     <col min="11" max="11" width="14.5546875" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -8542,7 +8776,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="E17" s="21" t="s">
         <v>55</v>
@@ -8551,7 +8785,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="E18" s="21" t="s">
         <v>56</v>
@@ -8560,18 +8794,18 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="E20" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="E21" s="20" t="s">
         <v>46</v>
@@ -8581,12 +8815,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="26"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
@@ -8601,8 +8835,11 @@
       <c r="L23" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O23" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -8643,7 +8880,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -8695,8 +8932,12 @@
         <f>D25-L25</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O25" s="3" t="str">
+        <f>DEC2HEX(2^0*K25+2^1*K26+2^2*K27+2^3*K28+2^4*K29+2^5*K30+2^6*K31+2^7*K32+2^8*K33+2^9*K34+2^10*K35+2^11*K36+2^12*K37+2^13*K38+2^14*K39+2^15*K40+2^16*K41+2^17*K42+2^18*K43+2^19*K44+2^20*K45+2^21*K46+2^22*K47+2^23*K48+2^24*K49+2^25*K50+2^26*K51+2^27*K52+2^28*K53+2^29*K54+2^30*K55+2^31*K56)</f>
+        <v>55555AAA</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -8749,7 +8990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -8802,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -8855,7 +9096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -8908,7 +9149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -8961,7 +9202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6</v>
       </c>
@@ -9014,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7</v>
       </c>
@@ -9915,7 +10156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>24</v>
       </c>
@@ -9968,7 +10209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>25</v>
       </c>
@@ -10021,7 +10262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>26</v>
       </c>
@@ -10074,7 +10315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>27</v>
       </c>
@@ -10127,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>28</v>
       </c>
@@ -10180,7 +10421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>29</v>
       </c>
@@ -10233,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>30</v>
       </c>
@@ -10286,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>31</v>
       </c>
@@ -10339,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>32</v>
       </c>
@@ -10391,8 +10632,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O57" s="3" t="str">
+        <f>DEC2HEX(2^0*K57+2^1*K58+2^2*K59+2^3*K60+2^4*K61+2^5*K62+2^6*K63+2^7*K64+2^8*K65+2^9*K66+2^10*K67+2^11*K68+2^12*K69+2^13*K70+2^14*K71+2^15*K72+2^16*K73+2^17*K74+2^18*K75+2^19*K76+2^20*K77+2^21*K78+2^22*K79+2^23*K80+2^24*K81+2^25*K82+2^26*K83+2^27*K84+2^28*K85+2^29*K86+2^30*K87+2^31*K88)</f>
+        <v>A54AAA55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>33</v>
       </c>
@@ -10444,8 +10689,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>34</v>
       </c>
@@ -10498,7 +10744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>35</v>
       </c>
@@ -10551,7 +10797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>36</v>
       </c>
@@ -10604,7 +10850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>37</v>
       </c>
@@ -10657,7 +10903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>38</v>
       </c>
@@ -10710,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>39</v>
       </c>
@@ -11611,7 +11857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>56</v>
       </c>
@@ -11664,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>57</v>
       </c>
@@ -11717,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>58</v>
       </c>
@@ -11770,7 +12016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>59</v>
       </c>
@@ -11823,7 +12069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>60</v>
       </c>
@@ -11876,7 +12122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>61</v>
       </c>
@@ -11929,7 +12175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>62</v>
       </c>
@@ -11982,7 +12228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>63</v>
       </c>
@@ -12035,7 +12281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>64</v>
       </c>
@@ -12087,8 +12333,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O89" s="3" t="str">
+        <f>DEC2HEX(2^0*K89+2^1*K90+2^2*K91+2^3*K92+2^4*K93+2^5*K94+2^6*K95+2^7*K96+2^8*K97+2^9*K98+2^10*K99+2^11*K100+2^12*K101+2^13*K102+2^14*K103+2^15*K104+2^16*K105+2^17*K106+2^18*K107+2^19*K108+2^20*K109+2^21*K110+2^22*K111+2^23*K112+2^24*K113+2^25*K114+2^26*K115+2^27*K116+2^28*K117+2^29*K118+2^30*K119+2^31*K120)</f>
+        <v>12249494</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>65</v>
       </c>
@@ -12140,8 +12390,9 @@
         <f t="shared" ref="M90:M153" si="22">D90-L90</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>66</v>
       </c>
@@ -12194,7 +12445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>67</v>
       </c>
@@ -12247,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>68</v>
       </c>
@@ -12300,7 +12551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>69</v>
       </c>
@@ -12353,7 +12604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>70</v>
       </c>
@@ -12406,7 +12657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>71</v>
       </c>
@@ -13307,7 +13558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>88</v>
       </c>
@@ -13360,7 +13611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>89</v>
       </c>
@@ -13413,7 +13664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>90</v>
       </c>
@@ -13466,7 +13717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>91</v>
       </c>
@@ -13519,7 +13770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>92</v>
       </c>
@@ -13572,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>93</v>
       </c>
@@ -13625,7 +13876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>94</v>
       </c>
@@ -13678,7 +13929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>95</v>
       </c>
@@ -13731,7 +13982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>96</v>
       </c>
@@ -13783,8 +14034,12 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O121" s="3" t="str">
+        <f>DEC2HEX(2^0*K121+2^1*K122+2^2*K123+2^3*K124+2^4*K125+2^5*K126+2^6*K127+2^7*K128+2^8*K129+2^9*K130+2^10*K131+2^11*K132+2^12*K133+2^13*K134+2^14*K135+2^15*K136+2^16*K137+2^17*K138+2^18*K139+2^19*K140+2^20*K141+2^21*K142+2^22*K143+2^23*K144+2^24*K145+2^25*K146+2^26*K147+2^27*K148+2^28*K149+2^29*K150+2^30*K151+2^31*K152)</f>
+        <v>8082111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>97</v>
       </c>
@@ -13836,8 +14091,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O122" s="3"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>98</v>
       </c>
@@ -13889,8 +14145,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O123" s="3"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>99</v>
       </c>
@@ -13943,7 +14200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>100</v>
       </c>
@@ -13996,7 +14253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>101</v>
       </c>
@@ -14049,7 +14306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>102</v>
       </c>
@@ -14102,7 +14359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>103</v>
       </c>
@@ -15003,7 +15260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>120</v>
       </c>
@@ -15056,7 +15313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>121</v>
       </c>
@@ -15109,7 +15366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>122</v>
       </c>
@@ -15162,7 +15419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>123</v>
       </c>
@@ -15215,7 +15472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>124</v>
       </c>
@@ -15268,7 +15525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>125</v>
       </c>
@@ -15321,7 +15578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>126</v>
       </c>
@@ -15374,7 +15631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>127</v>
       </c>
@@ -15427,7 +15684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>128</v>
       </c>
@@ -15479,8 +15736,12 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O153" s="3" t="str">
+        <f>DEC2HEX(2^0*K153+2^1*K154+2^2*K155+2^3*K156+2^4*K157+2^5*K158+2^6*K159+2^7*K160+2^8*K161+2^9*K162+2^10*K163+2^11*K164+2^12*K165+2^13*K166+2^14*K167+2^15*K168+2^16*K169+2^17*K170+2^18*K171+2^19*K172+2^20*K173+2^21*K174+2^22*K175+2^23*K176+2^24*K177+2^25*K178+2^26*K179+2^27*K180+2^28*K181+2^29*K182+2^30*K183+2^31*K184)</f>
+        <v>FD000000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>129</v>
       </c>
@@ -15532,8 +15793,9 @@
         <f t="shared" ref="M154:M217" si="34">D154-L154</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O154" s="3"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>130</v>
       </c>
@@ -15586,7 +15848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>131</v>
       </c>
@@ -15639,7 +15901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>132</v>
       </c>
@@ -15692,7 +15954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>133</v>
       </c>
@@ -15745,7 +16007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>134</v>
       </c>
@@ -15798,7 +16060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>135</v>
       </c>
@@ -16699,7 +16961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>152</v>
       </c>
@@ -16752,7 +17014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>153</v>
       </c>
@@ -16805,7 +17067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>154</v>
       </c>
@@ -16858,7 +17120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>155</v>
       </c>
@@ -16911,7 +17173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>156</v>
       </c>
@@ -16964,7 +17226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>157</v>
       </c>
@@ -17017,7 +17279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>158</v>
       </c>
@@ -17070,7 +17332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>159</v>
       </c>
@@ -17123,7 +17385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>160</v>
       </c>
@@ -17175,8 +17437,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O185" s="3" t="str">
+        <f>DEC2HEX(2^0*K185+2^1*K186+2^2*K187+2^3*K188+2^4*K189+2^5*K190+2^6*K191+2^7*K192+2^8*K193+2^9*K194+2^10*K195+2^11*K196+2^12*K197+2^13*K198+2^14*K199+2^15*K200+2^16*K201+2^17*K202+2^18*K203+2^19*K204+2^20*K205+2^21*K206+2^22*K207+2^23*K208+2^24*K209+2^25*K210+2^26*K211+2^27*K212+2^28*K213+2^29*K214+2^30*K215+2^31*K216)</f>
+        <v>5ADDBBBE</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>161</v>
       </c>
@@ -17228,8 +17494,9 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O186" s="3"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>162</v>
       </c>
@@ -17282,7 +17549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>163</v>
       </c>
@@ -17335,7 +17602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>164</v>
       </c>
@@ -17388,7 +17655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>165</v>
       </c>
@@ -17441,7 +17708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>166</v>
       </c>
@@ -17494,7 +17761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>167</v>
       </c>
@@ -18395,7 +18662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>184</v>
       </c>
@@ -18448,7 +18715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>185</v>
       </c>
@@ -18501,7 +18768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>186</v>
       </c>
@@ -18554,7 +18821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>187</v>
       </c>
@@ -18607,7 +18874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>188</v>
       </c>
@@ -18660,7 +18927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>189</v>
       </c>
@@ -18713,7 +18980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>190</v>
       </c>
@@ -18766,7 +19033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>191</v>
       </c>
@@ -18819,7 +19086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>192</v>
       </c>
@@ -18871,8 +19138,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O217" s="3" t="str">
+        <f>DEC2HEX(2^0*K217+2^1*K218+2^2*K219+2^3*K220+2^4*K221+2^5*K222+2^6*K223+2^7*K224+2^8*K225+2^9*K226+2^10*K227+2^11*K228+2^12*K229+2^13*K230+2^14*K231+2^15*K232+2^16*K233+2^17*K234+2^18*K235+2^19*K236+2^20*K237+2^21*K238+2^22*K239+2^23*K240+2^24*K241+2^25*K242+2^26*K243+2^27*K244+2^28*K245+2^29*K246+2^30*K247+2^31*K248)</f>
+        <v>2494AAAB</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>193</v>
       </c>
@@ -18924,8 +19195,9 @@
         <f t="shared" ref="M218:M281" si="46">D218-L218</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O218" s="3"/>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>194</v>
       </c>
@@ -18978,7 +19250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>195</v>
       </c>
@@ -19031,7 +19303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>196</v>
       </c>
@@ -19084,7 +19356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>197</v>
       </c>
@@ -19137,7 +19409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>198</v>
       </c>
@@ -19190,7 +19462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>199</v>
       </c>
@@ -20091,7 +20363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>216</v>
       </c>
@@ -20144,7 +20416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>217</v>
       </c>
@@ -20197,7 +20469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>218</v>
       </c>
@@ -20250,7 +20522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>219</v>
       </c>
@@ -20303,7 +20575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>220</v>
       </c>
@@ -20356,7 +20628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>221</v>
       </c>
@@ -20409,7 +20681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>222</v>
       </c>
@@ -20462,7 +20734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>223</v>
       </c>
@@ -20515,7 +20787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>224</v>
       </c>
@@ -20567,8 +20839,12 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O249" s="3" t="str">
+        <f>DEC2HEX(2^0*K249+2^1*K250+2^2*K251+2^3*K252+2^4*K253+2^5*K254+2^6*K255+2^7*K256+2^8*K257+2^9*K258+2^10*K259+2^11*K260+2^12*K261+2^13*K262+2^14*K263+2^15*K264+2^16*K265+2^17*K266+2^18*K267+2^19*K268+2^20*K269+2^21*K270+2^22*K271+2^23*K272+2^24*K273+2^25*K274+2^26*K275+2^27*K276+2^28*K277+2^29*K278+2^30*K279+2^31*K280)</f>
+        <v>202111</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>225</v>
       </c>
@@ -20620,8 +20896,9 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O250" s="3"/>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>226</v>
       </c>
@@ -20674,7 +20951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>227</v>
       </c>
@@ -20727,7 +21004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>228</v>
       </c>
@@ -20780,7 +21057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>229</v>
       </c>
@@ -20833,7 +21110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>230</v>
       </c>
@@ -20886,7 +21163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>231</v>
       </c>
@@ -27142,16 +27419,1010 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB03C78E-35EC-4259-82C9-314B8838885E}">
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="112" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="112"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="113">
+        <v>5</v>
+      </c>
+      <c r="C4" s="113">
+        <v>0</v>
+      </c>
+      <c r="D4" s="114">
+        <v>10</v>
+      </c>
+      <c r="E4" s="113" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="113" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" s="113" t="s">
+        <v>270</v>
+      </c>
+      <c r="H4" s="113" t="s">
+        <v>271</v>
+      </c>
+      <c r="I4" s="115" t="str">
+        <f>DEC2HEX(O16,2)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="116">
+        <f>B4</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="116">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="116">
+        <f>_xlfn.BITOR(HEX2DEC(D4), HEX2DEC(80))</f>
+        <v>144</v>
+      </c>
+      <c r="E5" s="116">
+        <f>HEX2DEC(E4)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="116">
+        <f t="shared" ref="F5:H5" si="0">HEX2DEC(F4)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="116">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H5" s="116">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="117">
+        <f>B5</f>
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="117">
+        <f>C5</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>C16</f>
+        <v>105</v>
+      </c>
+      <c r="F8" s="117">
+        <f>D5</f>
+        <v>144</v>
+      </c>
+      <c r="G8">
+        <f>E16</f>
+        <v>24</v>
+      </c>
+      <c r="H8" s="118">
+        <f>E5</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>G16</f>
+        <v>119</v>
+      </c>
+      <c r="J8" s="118">
+        <f>F5</f>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>I16</f>
+        <v>66</v>
+      </c>
+      <c r="L8" s="118">
+        <f>G5</f>
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <f>K16</f>
+        <v>64</v>
+      </c>
+      <c r="N8" s="118">
+        <f>H5</f>
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <f>M16</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9">
+        <f>B8</f>
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f>IF(_xlfn.BITXOR(_xlfn.BITRSHIFT(C8,7),_xlfn.BITAND(B9,1))=1,_xlfn.BITXOR(_xlfn.BITAND(_xlfn.BITLSHIFT(C8,1),255),7),_xlfn.BITAND(_xlfn.BITLSHIFT(C8,1),255))</f>
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f>D8</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>IF(_xlfn.BITXOR(_xlfn.BITRSHIFT(E8,7),_xlfn.BITAND(D9,1))=1,_xlfn.BITXOR(_xlfn.BITAND(_xlfn.BITLSHIFT(E8,1),255),7),_xlfn.BITAND(_xlfn.BITLSHIFT(E8,1),255))</f>
+        <v>210</v>
+      </c>
+      <c r="F9">
+        <f>F8</f>
+        <v>144</v>
+      </c>
+      <c r="G9">
+        <f>IF(_xlfn.BITXOR(_xlfn.BITRSHIFT(G8,7),_xlfn.BITAND(F9,1))=1,_xlfn.BITXOR(_xlfn.BITAND(_xlfn.BITLSHIFT(G8,1),255),7),_xlfn.BITAND(_xlfn.BITLSHIFT(G8,1),255))</f>
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <f>H8</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>IF(_xlfn.BITXOR(_xlfn.BITRSHIFT(I8,7),_xlfn.BITAND(H9,1))=1,_xlfn.BITXOR(_xlfn.BITAND(_xlfn.BITLSHIFT(I8,1),255),7),_xlfn.BITAND(_xlfn.BITLSHIFT(I8,1),255))</f>
+        <v>238</v>
+      </c>
+      <c r="J9">
+        <f>J8</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>IF(_xlfn.BITXOR(_xlfn.BITRSHIFT(K8,7),_xlfn.BITAND(J9,1))=1,_xlfn.BITXOR(_xlfn.BITAND(_xlfn.BITLSHIFT(K8,1),255),7),_xlfn.BITAND(_xlfn.BITLSHIFT(K8,1),255))</f>
+        <v>131</v>
+      </c>
+      <c r="L9">
+        <f>L8</f>
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <f>IF(_xlfn.BITXOR(_xlfn.BITRSHIFT(M8,7),_xlfn.BITAND(L9,1))=1,_xlfn.BITXOR(_xlfn.BITAND(_xlfn.BITLSHIFT(M8,1),255),7),_xlfn.BITAND(_xlfn.BITLSHIFT(M8,1),255))</f>
+        <v>128</v>
+      </c>
+      <c r="N9">
+        <f>N8</f>
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <f>IF(_xlfn.BITXOR(_xlfn.BITRSHIFT(O8,7),_xlfn.BITAND(N9,1))=1,_xlfn.BITXOR(_xlfn.BITAND(_xlfn.BITLSHIFT(O8,1),255),7),_xlfn.BITAND(_xlfn.BITLSHIFT(O8,1),255))</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10">
+        <f>_xlfn.BITRSHIFT(B9,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C16" si="1">IF(_xlfn.BITXOR(_xlfn.BITRSHIFT(C9,7),_xlfn.BITAND(B10,1))=1,_xlfn.BITXOR(_xlfn.BITAND(_xlfn.BITLSHIFT(C9,1),255),7),_xlfn.BITAND(_xlfn.BITLSHIFT(C9,1),255))</f>
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <f>_xlfn.BITRSHIFT(D9,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:O16" si="2">IF(_xlfn.BITXOR(_xlfn.BITRSHIFT(E9,7),_xlfn.BITAND(D10,1))=1,_xlfn.BITXOR(_xlfn.BITAND(_xlfn.BITLSHIFT(E9,1),255),7),_xlfn.BITAND(_xlfn.BITLSHIFT(E9,1),255))</f>
+        <v>163</v>
+      </c>
+      <c r="F10">
+        <f>_xlfn.BITRSHIFT(F9,1)</f>
+        <v>72</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="H10">
+        <f>_xlfn.BITRSHIFT(H9,1)</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>219</v>
+      </c>
+      <c r="J10">
+        <f>_xlfn.BITRSHIFT(J9,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f>_xlfn.BITRSHIFT(L9,1)</f>
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <f>_xlfn.BITRSHIFT(N9,1)</f>
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:N16" si="3">_xlfn.BITRSHIFT(B10,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>202</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>183</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20" s="113" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="113" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="113" t="s">
+        <v>287</v>
+      </c>
+      <c r="E20" s="115" t="str">
+        <f>DEC2HEX(G32,2)</f>
+        <v>6F</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B21" s="116" t="str">
+        <f>B20</f>
+        <v>05</v>
+      </c>
+      <c r="C21" s="116" t="str">
+        <f>C20</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="116">
+        <f>HEX2DEC(D20)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="117" t="str">
+        <f>B21</f>
+        <v>05</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="117" t="str">
+        <f>C21</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>C32</f>
+        <v>105</v>
+      </c>
+      <c r="F24" s="117">
+        <f>D21</f>
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <f>E32</f>
+        <v>24</v>
+      </c>
+      <c r="H24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="N24" s="38"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>275</v>
+      </c>
+      <c r="B25" t="str">
+        <f>B24</f>
+        <v>05</v>
+      </c>
+      <c r="C25">
+        <f>IF(_xlfn.BITXOR(_xlfn.BITRSHIFT(C24,7),_xlfn.BITAND(B25,1))=1,_xlfn.BITXOR(_xlfn.BITAND(_xlfn.BITLSHIFT(C24,1),255),7),_xlfn.BITAND(_xlfn.BITLSHIFT(C24,1),255))</f>
+        <v>7</v>
+      </c>
+      <c r="D25" t="str">
+        <f>D24</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>IF(_xlfn.BITXOR(_xlfn.BITRSHIFT(E24,7),_xlfn.BITAND(D25,1))=1,_xlfn.BITXOR(_xlfn.BITAND(_xlfn.BITLSHIFT(E24,1),255),7),_xlfn.BITAND(_xlfn.BITLSHIFT(E24,1),255))</f>
+        <v>210</v>
+      </c>
+      <c r="F25">
+        <f>F24</f>
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <f>IF(_xlfn.BITXOR(_xlfn.BITRSHIFT(G24,7),_xlfn.BITAND(F25,1))=1,_xlfn.BITXOR(_xlfn.BITAND(_xlfn.BITLSHIFT(G24,1),255),7),_xlfn.BITAND(_xlfn.BITLSHIFT(G24,1),255))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26">
+        <f>_xlfn.BITRSHIFT(B25,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:C32" si="4">IF(_xlfn.BITXOR(_xlfn.BITRSHIFT(C25,7),_xlfn.BITAND(B26,1))=1,_xlfn.BITXOR(_xlfn.BITAND(_xlfn.BITLSHIFT(C25,1),255),7),_xlfn.BITAND(_xlfn.BITLSHIFT(C25,1),255))</f>
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <f>_xlfn.BITRSHIFT(D25,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:E32" si="5">IF(_xlfn.BITXOR(_xlfn.BITRSHIFT(E25,7),_xlfn.BITAND(D26,1))=1,_xlfn.BITXOR(_xlfn.BITAND(_xlfn.BITLSHIFT(E25,1),255),7),_xlfn.BITAND(_xlfn.BITLSHIFT(E25,1),255))</f>
+        <v>163</v>
+      </c>
+      <c r="F26">
+        <f>_xlfn.BITRSHIFT(F25,1)</f>
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G32" si="6">IF(_xlfn.BITXOR(_xlfn.BITRSHIFT(G25,7),_xlfn.BITAND(F26,1))=1,_xlfn.BITXOR(_xlfn.BITAND(_xlfn.BITLSHIFT(G25,1),255),7),_xlfn.BITAND(_xlfn.BITLSHIFT(G25,1),255))</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:B32" si="7">_xlfn.BITRSHIFT(B26,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:D32" si="8">_xlfn.BITRSHIFT(D26,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F32" si="9">_xlfn.BITRSHIFT(F26,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>216</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>281</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>183</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27258,6 +28529,28 @@
         <v>255</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>291</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
